--- a/data/davos/user_cs_profile_clusters.xlsx
+++ b/data/davos/user_cs_profile_clusters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="16560" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -7683,15 +7683,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -7717,7 +7717,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>509907</v>
       </c>
@@ -7742,8 +7742,16 @@
       <c r="H2" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2">
+        <f xml:space="preserve"> SUM(B2:G2)</f>
+        <v>37</v>
+      </c>
+      <c r="J2">
+        <f xml:space="preserve"> AVERAGE(I2:I42)</f>
+        <v>25.878048780487806</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>509997</v>
       </c>
@@ -7768,8 +7776,16 @@
       <c r="H3" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3">
+        <f t="shared" ref="I3:I66" si="0" xml:space="preserve"> SUM(B3:G3)</f>
+        <v>26</v>
+      </c>
+      <c r="J3">
+        <f xml:space="preserve"> STDEV(I2:I42)</f>
+        <v>7.3966043626491862</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>510196</v>
       </c>
@@ -7794,8 +7810,12 @@
       <c r="H4" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>510401</v>
       </c>
@@ -7820,8 +7840,12 @@
       <c r="H5" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>510410</v>
       </c>
@@ -7846,8 +7870,12 @@
       <c r="H6" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>510422</v>
       </c>
@@ -7872,8 +7900,12 @@
       <c r="H7" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>510457</v>
       </c>
@@ -7898,8 +7930,12 @@
       <c r="H8" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>510500</v>
       </c>
@@ -7924,8 +7960,12 @@
       <c r="H9" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>510688</v>
       </c>
@@ -7950,8 +7990,12 @@
       <c r="H10" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>510849</v>
       </c>
@@ -7976,8 +8020,12 @@
       <c r="H11" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>510881</v>
       </c>
@@ -8002,8 +8050,12 @@
       <c r="H12" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>510918</v>
       </c>
@@ -8028,8 +8080,12 @@
       <c r="H13" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>511250</v>
       </c>
@@ -8054,8 +8110,12 @@
       <c r="H14" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>511512</v>
       </c>
@@ -8080,8 +8140,12 @@
       <c r="H15" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>511862</v>
       </c>
@@ -8106,8 +8170,12 @@
       <c r="H16" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>512508</v>
       </c>
@@ -8132,8 +8200,12 @@
       <c r="H17" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>513033</v>
       </c>
@@ -8158,8 +8230,12 @@
       <c r="H18" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>513058</v>
       </c>
@@ -8184,8 +8260,12 @@
       <c r="H19" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>513324</v>
       </c>
@@ -8210,8 +8290,12 @@
       <c r="H20" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>513762</v>
       </c>
@@ -8236,8 +8320,12 @@
       <c r="H21" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>513969</v>
       </c>
@@ -8262,8 +8350,12 @@
       <c r="H22" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>514007</v>
       </c>
@@ -8288,8 +8380,12 @@
       <c r="H23" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>514819</v>
       </c>
@@ -8314,8 +8410,12 @@
       <c r="H24" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>515151</v>
       </c>
@@ -8340,8 +8440,12 @@
       <c r="H25" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>515289</v>
       </c>
@@ -8366,8 +8470,12 @@
       <c r="H26" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>515762</v>
       </c>
@@ -8392,8 +8500,12 @@
       <c r="H27" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>516417</v>
       </c>
@@ -8418,8 +8530,12 @@
       <c r="H28" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>516517</v>
       </c>
@@ -8444,8 +8560,12 @@
       <c r="H29" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>1001444</v>
       </c>
@@ -8470,8 +8590,12 @@
       <c r="H30" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>1001636</v>
       </c>
@@ -8496,8 +8620,12 @@
       <c r="H31" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>1001877</v>
       </c>
@@ -8522,8 +8650,12 @@
       <c r="H32" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>1002242</v>
       </c>
@@ -8548,8 +8680,12 @@
       <c r="H33" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>1002281</v>
       </c>
@@ -8574,8 +8710,12 @@
       <c r="H34" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>1002422</v>
       </c>
@@ -8600,8 +8740,12 @@
       <c r="H35" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>1002648</v>
       </c>
@@ -8626,8 +8770,12 @@
       <c r="H36" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>1003016</v>
       </c>
@@ -8652,8 +8800,12 @@
       <c r="H37" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I37">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>1003158</v>
       </c>
@@ -8678,8 +8830,12 @@
       <c r="H38" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I38">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>2001521</v>
       </c>
@@ -8704,8 +8860,12 @@
       <c r="H39" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I39">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>2001541</v>
       </c>
@@ -8730,8 +8890,12 @@
       <c r="H40" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>2005133</v>
       </c>
@@ -8756,8 +8920,12 @@
       <c r="H41" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I41">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>2008165</v>
       </c>
@@ -8782,8 +8950,12 @@
       <c r="H42" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I42">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>509921</v>
       </c>
@@ -8808,8 +8980,16 @@
       <c r="H43" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I43">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="J43">
+        <f xml:space="preserve"> AVERAGE(I43:I65)</f>
+        <v>25.869565217391305</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>509969</v>
       </c>
@@ -8834,8 +9014,16 @@
       <c r="H44" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I44">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="J44">
+        <f xml:space="preserve"> STDEV(I43:I65)</f>
+        <v>5.841110945282483</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>510275</v>
       </c>
@@ -8860,8 +9048,12 @@
       <c r="H45" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I45">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>510734</v>
       </c>
@@ -8886,8 +9078,12 @@
       <c r="H46" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I46">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>510910</v>
       </c>
@@ -8912,8 +9108,12 @@
       <c r="H47" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I47">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>510999</v>
       </c>
@@ -8938,8 +9138,12 @@
       <c r="H48" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I48">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>511447</v>
       </c>
@@ -8964,8 +9168,12 @@
       <c r="H49" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I49">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>511665</v>
       </c>
@@ -8990,8 +9198,12 @@
       <c r="H50" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I50">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>513210</v>
       </c>
@@ -9016,8 +9228,12 @@
       <c r="H51" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I51">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>513935</v>
       </c>
@@ -9042,8 +9258,12 @@
       <c r="H52" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I52">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>514232</v>
       </c>
@@ -9068,8 +9288,12 @@
       <c r="H53" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I53">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>514928</v>
       </c>
@@ -9094,8 +9318,12 @@
       <c r="H54" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I54">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>515233</v>
       </c>
@@ -9120,8 +9348,12 @@
       <c r="H55" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I55">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>515843</v>
       </c>
@@ -9146,8 +9378,12 @@
       <c r="H56" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I56">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>516135</v>
       </c>
@@ -9172,8 +9408,12 @@
       <c r="H57" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I57">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>1001335</v>
       </c>
@@ -9198,8 +9438,12 @@
       <c r="H58" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I58">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>1001918</v>
       </c>
@@ -9224,8 +9468,12 @@
       <c r="H59" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I59">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>1002013</v>
       </c>
@@ -9250,8 +9498,12 @@
       <c r="H60" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I60">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>1002655</v>
       </c>
@@ -9276,8 +9528,12 @@
       <c r="H61" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I61">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>2001299</v>
       </c>
@@ -9302,8 +9558,12 @@
       <c r="H62" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I62">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>2004828</v>
       </c>
@@ -9328,8 +9588,12 @@
       <c r="H63" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I63">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>2005036</v>
       </c>
@@ -9354,8 +9618,12 @@
       <c r="H64" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I64">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>2016938</v>
       </c>
@@ -9380,38 +9648,49 @@
       <c r="H65" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I65">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B66">
         <f xml:space="preserve"> SUM(B2:B65)</f>
         <v>354</v>
       </c>
       <c r="C66">
-        <f t="shared" ref="C66:H66" si="0" xml:space="preserve"> SUM(C2:C65)</f>
+        <f xml:space="preserve"> SUM(C2:C65)</f>
         <v>82</v>
       </c>
       <c r="D66">
+        <f xml:space="preserve"> SUM(D2:D65)</f>
+        <v>86</v>
+      </c>
+      <c r="E66">
+        <f xml:space="preserve"> SUM(E2:E65)</f>
+        <v>8</v>
+      </c>
+      <c r="F66">
+        <f xml:space="preserve"> SUM(F2:F65)</f>
+        <v>25</v>
+      </c>
+      <c r="G66">
+        <f xml:space="preserve"> SUM(G2:G65)</f>
+        <v>1101</v>
+      </c>
+      <c r="H66">
+        <f xml:space="preserve"> SUM(H2:H65)</f>
+        <v>23</v>
+      </c>
+      <c r="I66">
         <f t="shared" si="0"/>
-        <v>86</v>
-      </c>
-      <c r="E66">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="F66">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="G66">
-        <f t="shared" si="0"/>
-        <v>1101</v>
-      </c>
-      <c r="H66">
-        <f t="shared" si="0"/>
-        <v>23</v>
+        <v>1656</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:H66">
+    <sortCondition ref="H1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
